--- a/TDStore/Công Nợ.xlsx
+++ b/TDStore/Công Nợ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATA\04.Private\TDStore\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0E2FB6A-35C2-40E1-A318-08353C49CF0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71429E99-1DE7-4DA6-AD0D-3355B4B31733}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{B4E93AD0-FCAE-45CC-9919-8B3F8197C095}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{B4E93AD0-FCAE-45CC-9919-8B3F8197C095}"/>
   </bookViews>
   <sheets>
     <sheet name="Hảo ĐN" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="17">
   <si>
     <t>Máy</t>
   </si>
@@ -58,9 +58,6 @@
     <t>840 G6</t>
   </si>
   <si>
-    <t>Surface</t>
-  </si>
-  <si>
     <t>Thanh toán</t>
   </si>
   <si>
@@ -86,6 +83,12 @@
   </si>
   <si>
     <t>Tổng</t>
+  </si>
+  <si>
+    <t>Dell latitude 7400</t>
+  </si>
+  <si>
+    <t>14/07/23</t>
   </si>
 </sst>
 </file>
@@ -525,16 +528,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48B834ED-E8DD-424B-B27C-85AD60732939}">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.42578125" customWidth="1"/>
-    <col min="2" max="4" width="9.140625" style="1"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="1"/>
     <col min="5" max="5" width="18.28515625" style="1" customWidth="1"/>
     <col min="6" max="6" width="13.85546875" style="4" customWidth="1"/>
     <col min="7" max="7" width="18.28515625" style="1" customWidth="1"/>
@@ -555,11 +560,11 @@
       </c>
       <c r="D1" s="6"/>
       <c r="E1" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F1" s="6"/>
       <c r="G1" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H1" s="6"/>
       <c r="I1" s="7" t="s">
@@ -570,22 +575,22 @@
       <c r="A2" s="8"/>
       <c r="B2" s="10"/>
       <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>9</v>
-      </c>
       <c r="E2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>9</v>
-      </c>
       <c r="G2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>9</v>
       </c>
       <c r="I2" s="8"/>
     </row>
@@ -603,13 +608,13 @@
         <v>3100000</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G3" s="1">
         <v>3100000</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I3" s="1">
         <f>B3-C3-E3</f>
@@ -627,77 +632,80 @@
         <v>3100000</v>
       </c>
       <c r="I4" s="1">
-        <f t="shared" ref="I4:I7" si="0">B4-C4-E4</f>
+        <f t="shared" ref="I4:I5" si="0">B4-C4-E4</f>
         <v>2900000</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5" s="1">
-        <v>7600000</v>
+        <v>9000000</v>
       </c>
       <c r="C5" s="1">
-        <v>1580000</v>
+        <v>4500000</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="I5" s="1">
         <f t="shared" si="0"/>
-        <v>6020000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>4500000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="5">
+        <v>4900000</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="1">
-        <v>9000000</v>
-      </c>
-      <c r="C6" s="1">
-        <v>4500000</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>12</v>
+      <c r="E6" s="1">
+        <v>4000000</v>
+      </c>
+      <c r="F6" s="4">
+        <v>45145</v>
+      </c>
+      <c r="G6" s="1">
+        <v>900000</v>
+      </c>
+      <c r="H6" s="4">
+        <v>45145</v>
       </c>
       <c r="I6" s="1">
-        <f t="shared" si="0"/>
-        <v>4500000</v>
+        <f>B6-C6-E6-G6</f>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="5">
-        <v>4900000</v>
+        <v>15</v>
+      </c>
+      <c r="B7" s="1">
+        <v>5600000</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2600000</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="1">
-        <v>4000000</v>
-      </c>
-      <c r="F7" s="4">
-        <v>45145</v>
-      </c>
-      <c r="G7" s="1">
-        <v>900000</v>
-      </c>
-      <c r="H7" s="4">
-        <v>45145</v>
+        <v>16</v>
       </c>
       <c r="I7" s="1">
         <f>B7-C7-E7-G7</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I10" s="1">
+        <v>3000000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I9" s="1">
         <f>SUM(I3:I7)</f>
-        <v>13420000</v>
-      </c>
-      <c r="J10" t="s">
-        <v>15</v>
+        <v>10400000</v>
+      </c>
+      <c r="J9" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -709,7 +717,7 @@
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="G1:H1"/>
   </mergeCells>
-  <conditionalFormatting sqref="B7">
+  <conditionalFormatting sqref="B6">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>MOD(ROW(),2)&gt;0</formula>
     </cfRule>
@@ -746,7 +754,7 @@
       </c>
       <c r="D1" s="6"/>
       <c r="E1" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F1" s="6"/>
       <c r="G1" s="7" t="s">
@@ -757,22 +765,22 @@
       <c r="A2" s="8"/>
       <c r="B2" s="10"/>
       <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>9</v>
-      </c>
       <c r="E2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>9</v>
       </c>
       <c r="G2" s="8"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1">
         <v>10500000</v>
@@ -858,8 +866,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D934CBD-6687-48AB-8F21-B887FD08CB42}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -880,7 +888,7 @@
       </c>
       <c r="D1" s="6"/>
       <c r="E1" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F1" s="6"/>
       <c r="G1" s="7" t="s">
@@ -891,16 +899,16 @@
       <c r="A2" s="8"/>
       <c r="B2" s="10"/>
       <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>9</v>
-      </c>
       <c r="E2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>9</v>
       </c>
       <c r="G2" s="8"/>
     </row>

--- a/TDStore/Công Nợ.xlsx
+++ b/TDStore/Công Nợ.xlsx
@@ -1,44 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATA\04.Private\TDStore\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01.GIT\04.Private\TDStore\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71429E99-1DE7-4DA6-AD0D-3355B4B31733}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44B53712-8EF2-418C-B22E-BAB06B253611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{B4E93AD0-FCAE-45CC-9919-8B3F8197C095}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B4E93AD0-FCAE-45CC-9919-8B3F8197C095}"/>
   </bookViews>
   <sheets>
     <sheet name="Hảo ĐN" sheetId="1" r:id="rId1"/>
     <sheet name="Hiền Thỏ" sheetId="2" r:id="rId2"/>
     <sheet name="Quân" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="18">
   <si>
     <t>Máy</t>
   </si>
@@ -89,6 +78,9 @@
   </si>
   <si>
     <t>14/07/23</t>
+  </si>
+  <si>
+    <t>Dell latitude 5400</t>
   </si>
 </sst>
 </file>
@@ -528,10 +520,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48B834ED-E8DD-424B-B27C-85AD60732939}">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -683,29 +675,34 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="1">
-        <v>5600000</v>
-      </c>
-      <c r="C7" s="1">
-        <v>2600000</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I7" s="1">
-        <f>B7-C7-E7-G7</f>
-        <v>3000000</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I9" s="1">
-        <f>SUM(I3:I7)</f>
-        <v>10400000</v>
+        <f>SUM(I3:I6)</f>
+        <v>7400000</v>
       </c>
       <c r="J9" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="1">
+        <v>5600000</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1600000</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" s="1">
+        <f>B13-C13-E13-G13</f>
+        <v>4000000</v>
       </c>
     </row>
   </sheetData>
@@ -866,7 +863,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D934CBD-6687-48AB-8F21-B887FD08CB42}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>

--- a/TDStore/Công Nợ.xlsx
+++ b/TDStore/Công Nợ.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01.GIT\04.Private\TDStore\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44B53712-8EF2-418C-B22E-BAB06B253611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B02B371-2CF6-4F0E-9898-9AED5828C2DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B4E93AD0-FCAE-45CC-9919-8B3F8197C095}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="18">
   <si>
     <t>Máy</t>
   </si>
@@ -523,7 +523,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -624,7 +624,7 @@
         <v>3100000</v>
       </c>
       <c r="I4" s="1">
-        <f t="shared" ref="I4:I5" si="0">B4-C4-E4</f>
+        <f t="shared" ref="I4:I7" si="0">B4-C4-E4</f>
         <v>2900000</v>
       </c>
     </row>
@@ -669,19 +669,32 @@
         <v>45145</v>
       </c>
       <c r="I6" s="1">
-        <f>B6-C6-E6-G6</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>900000</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>17</v>
       </c>
+      <c r="B7" s="1">
+        <v>5000000</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1600000</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="1">
+        <f t="shared" si="0"/>
+        <v>3400000</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I9" s="1">
-        <f>SUM(I3:I6)</f>
-        <v>7400000</v>
+        <f>SUM(I3:I7)</f>
+        <v>11700000</v>
       </c>
       <c r="J9" t="s">
         <v>14</v>

--- a/TDStore/Công Nợ.xlsx
+++ b/TDStore/Công Nợ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01.GIT\04.Private\TDStore\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B02B371-2CF6-4F0E-9898-9AED5828C2DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB0D5667-6D4F-4DD2-B17A-73E905C9A34F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B4E93AD0-FCAE-45CC-9919-8B3F8197C095}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="18">
   <si>
     <t>Máy</t>
   </si>
@@ -74,13 +74,13 @@
     <t>Tổng</t>
   </si>
   <si>
-    <t>Dell latitude 7400</t>
-  </si>
-  <si>
     <t>14/07/23</t>
   </si>
   <si>
     <t>Dell latitude 5400</t>
+  </si>
+  <si>
+    <t>19/08/2023</t>
   </si>
 </sst>
 </file>
@@ -523,7 +523,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -623,9 +623,15 @@
       <c r="C4" s="1">
         <v>3100000</v>
       </c>
+      <c r="E4" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="I4" s="1">
         <f t="shared" ref="I4:I7" si="0">B4-C4-E4</f>
-        <v>2900000</v>
+        <v>900000</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -675,7 +681,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" s="1">
         <v>5000000</v>
@@ -684,7 +690,7 @@
         <v>1600000</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I7" s="1">
         <f t="shared" si="0"/>
@@ -694,29 +700,14 @@
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I9" s="1">
         <f>SUM(I3:I7)</f>
-        <v>11700000</v>
+        <v>9700000</v>
       </c>
       <c r="J9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="1">
-        <v>5600000</v>
-      </c>
-      <c r="C13" s="1">
-        <v>1600000</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I13" s="1">
-        <f>B13-C13-E13-G13</f>
-        <v>4000000</v>
-      </c>
+      <c r="I13" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/TDStore/Công Nợ.xlsx
+++ b/TDStore/Công Nợ.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01.GIT\04.Private\TDStore\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\06.TDStore\04.Private\TDStore\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB0D5667-6D4F-4DD2-B17A-73E905C9A34F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C830033-F29F-4639-8086-4E411C675F42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B4E93AD0-FCAE-45CC-9919-8B3F8197C095}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Hiền Thỏ" sheetId="2" r:id="rId2"/>
     <sheet name="Quân" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -523,7 +523,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/TDStore/Công Nợ.xlsx
+++ b/TDStore/Công Nợ.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\06.TDStore\04.Private\TDStore\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\04.Private\TDStore\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C830033-F29F-4639-8086-4E411C675F42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E2EE70A-D7B6-4237-8136-04B7B846B09C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B4E93AD0-FCAE-45CC-9919-8B3F8197C095}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Hiền Thỏ" sheetId="2" r:id="rId2"/>
     <sheet name="Quân" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="16">
   <si>
     <t>Máy</t>
   </si>
@@ -72,12 +72,6 @@
   </si>
   <si>
     <t>Tổng</t>
-  </si>
-  <si>
-    <t>14/07/23</t>
-  </si>
-  <si>
-    <t>Dell latitude 5400</t>
   </si>
   <si>
     <t>19/08/2023</t>
@@ -523,7 +517,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection sqref="A1:J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -627,7 +621,7 @@
         <v>2000000</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I4" s="1">
         <f t="shared" ref="I4:I7" si="0">B4-C4-E4</f>
@@ -647,12 +641,18 @@
       <c r="D5" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="E5" s="1">
+        <v>1600000</v>
+      </c>
+      <c r="F5" s="4">
+        <v>45178</v>
+      </c>
       <c r="I5" s="1">
-        <f t="shared" si="0"/>
-        <v>4500000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <f>B5-C5-E5</f>
+        <v>2900000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -680,27 +680,12 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="1">
-        <v>5000000</v>
-      </c>
-      <c r="C7" s="1">
-        <v>1600000</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" s="1">
-        <f t="shared" si="0"/>
-        <v>3400000</v>
-      </c>
+      <c r="I7" s="1"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I9" s="1">
         <f>SUM(I3:I7)</f>
-        <v>9700000</v>
+        <v>4700000</v>
       </c>
       <c r="J9" t="s">
         <v>14</v>

--- a/TDStore/Công Nợ.xlsx
+++ b/TDStore/Công Nợ.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\04.Private\TDStore\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\06.TDStore\04.Private\TDStore\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E2EE70A-D7B6-4237-8136-04B7B846B09C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{337D662C-97A5-4503-88EC-4C98136D7962}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B4E93AD0-FCAE-45CC-9919-8B3F8197C095}"/>
   </bookViews>
   <sheets>
     <sheet name="Hảo ĐN" sheetId="1" r:id="rId1"/>
-    <sheet name="Hiền Thỏ" sheetId="2" r:id="rId2"/>
-    <sheet name="Quân" sheetId="3" r:id="rId3"/>
+    <sheet name="Quân" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="15">
   <si>
     <t>Máy</t>
   </si>
@@ -63,9 +62,6 @@
   </si>
   <si>
     <t>30/06/23</t>
-  </si>
-  <si>
-    <t>Dell 5310 I7</t>
   </si>
   <si>
     <t>latitude 5400</t>
@@ -517,7 +513,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:J9"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -621,10 +617,10 @@
         <v>2000000</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I4" s="1">
-        <f t="shared" ref="I4:I7" si="0">B4-C4-E4</f>
+        <f t="shared" ref="I4:I6" si="0">B4-C4-E4</f>
         <v>900000</v>
       </c>
     </row>
@@ -654,7 +650,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="5">
         <v>4900000</v>
@@ -688,7 +684,7 @@
         <v>4700000</v>
       </c>
       <c r="J9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -714,146 +710,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32AAC9D6-B824-4155-AFF1-EB7E98051D1E}">
-  <dimension ref="A1:G11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="4"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="6"/>
-      <c r="G1" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="8"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="1">
-        <v>10500000</v>
-      </c>
-      <c r="C3" s="1">
-        <v>5000000</v>
-      </c>
-      <c r="D3" s="4">
-        <v>44933</v>
-      </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="1">
-        <f>B3-C3</f>
-        <v>5500000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="4"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="4"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="4"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="4"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="4"/>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:G2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D934CBD-6687-48AB-8F21-B887FD08CB42}">
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -899,28 +760,11 @@
       <c r="G2" s="8"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>7400</v>
-      </c>
-      <c r="B3" s="1">
-        <v>5800000</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0</v>
-      </c>
-      <c r="D3" s="4">
-        <v>45144</v>
-      </c>
-      <c r="E3" s="1">
-        <v>5800000</v>
-      </c>
-      <c r="F3" s="4">
-        <v>45145</v>
-      </c>
-      <c r="G3" s="1">
-        <f>B3-C3-E3</f>
-        <v>0</v>
-      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>

--- a/TDStore/Công Nợ.xlsx
+++ b/TDStore/Công Nợ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\06.TDStore\04.Private\TDStore\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{337D662C-97A5-4503-88EC-4C98136D7962}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0A44F8B-AB9A-42D8-B457-D10703543999}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B4E93AD0-FCAE-45CC-9919-8B3F8197C095}"/>
+    <workbookView xWindow="7200" yWindow="3840" windowWidth="21600" windowHeight="11385" xr2:uid="{B4E93AD0-FCAE-45CC-9919-8B3F8197C095}"/>
   </bookViews>
   <sheets>
     <sheet name="Hảo ĐN" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="14">
   <si>
     <t>Máy</t>
   </si>
@@ -62,9 +62,6 @@
   </si>
   <si>
     <t>30/06/23</t>
-  </si>
-  <si>
-    <t>latitude 5400</t>
   </si>
   <si>
     <t>Tổng</t>
@@ -89,7 +86,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -99,12 +96,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -162,7 +153,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -172,7 +163,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -192,15 +182,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -510,10 +492,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48B834ED-E8DD-424B-B27C-85AD60732939}">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -531,31 +513,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6" t="s">
+      <c r="D1" s="5"/>
+      <c r="E1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6" t="s">
+      <c r="F1" s="5"/>
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6"/>
-      <c r="I1" s="7" t="s">
+      <c r="H1" s="5"/>
+      <c r="I1" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
-      <c r="B2" s="10"/>
+      <c r="A2" s="7"/>
+      <c r="B2" s="9"/>
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
@@ -574,7 +556,7 @@
       <c r="H2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="8"/>
+      <c r="I2" s="7"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -617,10 +599,10 @@
         <v>2000000</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I4" s="1">
-        <f t="shared" ref="I4:I6" si="0">B4-C4-E4</f>
+        <f t="shared" ref="I4" si="0">B4-C4-E4</f>
         <v>900000</v>
       </c>
     </row>
@@ -649,46 +631,19 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="I6" s="1"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I8" s="1">
+        <f>SUM(I3:I6)</f>
+        <v>3800000</v>
+      </c>
+      <c r="J8" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="5">
-        <v>4900000</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="1">
-        <v>4000000</v>
-      </c>
-      <c r="F6" s="4">
-        <v>45145</v>
-      </c>
-      <c r="G6" s="1">
-        <v>900000</v>
-      </c>
-      <c r="H6" s="4">
-        <v>45145</v>
-      </c>
-      <c r="I6" s="1">
-        <f t="shared" si="0"/>
-        <v>900000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I7" s="1"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I9" s="1">
-        <f>SUM(I3:I7)</f>
-        <v>4700000</v>
-      </c>
-      <c r="J9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I13" s="1"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I12" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -699,11 +654,6 @@
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="G1:H1"/>
   </mergeCells>
-  <conditionalFormatting sqref="B6">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>MOD(ROW(),2)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -724,27 +674,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6" t="s">
+      <c r="D1" s="5"/>
+      <c r="E1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="6"/>
-      <c r="G1" s="7" t="s">
+      <c r="F1" s="5"/>
+      <c r="G1" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
-      <c r="B2" s="10"/>
+      <c r="A2" s="7"/>
+      <c r="B2" s="9"/>
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
@@ -757,7 +707,7 @@
       <c r="F2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="8"/>
+      <c r="G2" s="7"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
